--- a/admin/Format/format_data_soal.xlsx
+++ b/admin/Format/format_data_soal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ujianonline\admin\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9313423-D1F7-472D-948C-79D3A1EDCC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743AA2D6-60B4-4FCA-B823-187C0486C7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -67,10 +67,13 @@
     <t>gambar</t>
   </si>
   <si>
+    <t>* jika pakai gambar tulis saja iya * pilihan ganda harus sampai E</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
     <t>ya</t>
-  </si>
-  <si>
-    <t>* jika pakai gambar tulis saja iya * pilihan ganda harus sampai E</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,26 +177,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,12 +205,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -274,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2287356D-EF94-4CCB-B6D1-14762C09DA71}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,28 +556,28 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -620,258 +607,241 @@
         <v>4</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:10" ht="165">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="19"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="19"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
